--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10335" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,108 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -571,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14:AD16"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CS18" sqref="CS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6004,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="CS18" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CT18" s="1">
         <v>0</v>
@@ -6608,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="CS20" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CT20" s="1">
         <v>0</v>
@@ -7831,48 +7932,48 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,6 +7983,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -8013,35 +8129,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8063,9 +8154,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -90,108 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -673,7 +572,7 @@
   <dimension ref="A1:CV24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CS18" sqref="CS18"/>
+      <selection activeCell="CT22" sqref="CT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7316,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CU22" s="1">
         <v>0</v>
@@ -7932,48 +7831,48 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate3\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,209 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -571,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CT22" sqref="CT22"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6494,37 +6696,37 @@
         <v>17</v>
       </c>
       <c r="BG20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BQ20" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BR20" s="1">
         <v>2</v>
@@ -6793,37 +6995,37 @@
         <v>2</v>
       </c>
       <c r="BF21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BQ21" s="1">
         <v>2</v>
@@ -7095,34 +7297,34 @@
         <v>2</v>
       </c>
       <c r="BF22" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BG22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BP22" s="1">
         <v>2</v>
@@ -7400,28 +7602,28 @@
         <v>2</v>
       </c>
       <c r="BG23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BH23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BI23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BK23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BL23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BM23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BN23" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BO23" s="1">
         <v>2</v>
@@ -7831,48 +8033,48 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7891,12 +8093,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -8028,6 +8224,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
@@ -8037,22 +8239,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8068,4 +8254,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate3\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,512 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -773,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BK12" sqref="BK12"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB4" sqref="BB1:BB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4705,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="CV13" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.15">
@@ -5309,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="CV15" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.15">
@@ -7297,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="BF22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="1">
         <v>0</v>
@@ -7324,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="1">
         <v>2</v>
@@ -7423,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="CV22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:100" x14ac:dyDescent="0.15">
@@ -7725,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="CV23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:100" x14ac:dyDescent="0.15">
@@ -8032,49 +8537,49 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:CV24">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+  <conditionalFormatting sqref="A4:CV24 BB1:BB3">
+    <cfRule type="cellIs" dxfId="125" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8259,15 +8764,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamGame\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GetHub\Git\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,714 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -1278,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB4" sqref="BB1:BB4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4695,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -4704,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
         <v>0</v>
@@ -8537,49 +7830,49 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:CV24 BB1:BB3">
-    <cfRule type="cellIs" dxfId="125" priority="14" operator="equal">
+  <conditionalFormatting sqref="BB1:BB3 A4:CV24">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8589,12 +7882,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8730,15 +8020,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8762,17 +8063,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GetHub\Git\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10335" windowHeight="9615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,108 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -571,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3988,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
         <v>10</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0</v>
       </c>
       <c r="AG12" s="1">
         <v>0</v>
@@ -4503,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="CV13" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.15">
@@ -5107,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="CV15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.15">
@@ -6004,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="CS18" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CT18" s="1">
         <v>0</v>
@@ -6306,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="CS19" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CT19" s="1">
         <v>0</v>
@@ -6461,13 +6360,13 @@
         <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="1">
         <v>0</v>
@@ -6766,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AX21" s="1">
         <v>0</v>
@@ -6778,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="1">
         <v>0</v>
@@ -7095,7 +6994,7 @@
         <v>2</v>
       </c>
       <c r="BF22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG22" s="1">
         <v>0</v>
@@ -7122,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP22" s="1">
         <v>2</v>
@@ -7215,13 +7114,13 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CU22" s="1">
         <v>0</v>
       </c>
       <c r="CV22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:100" x14ac:dyDescent="0.15">
@@ -7523,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="CV23" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:100" x14ac:dyDescent="0.15">
@@ -7830,49 +7729,49 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BB1:BB3 A4:CV24">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+  <conditionalFormatting sqref="A4:CV24">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV24">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7882,12 +7781,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -8019,32 +7927,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8060,12 +7967,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG20" sqref="BG20"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CX28" sqref="CX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CU22" s="1">
         <v>0</v>
@@ -7790,12 +7790,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -7927,6 +7921,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
@@ -7936,22 +7936,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7967,4 +7951,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GitHub\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CX28" sqref="CX28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ13" s="1">
         <v>0</v>
@@ -7781,12 +7781,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7922,15 +7919,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7954,17 +7962,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\GitHub\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CT23" sqref="CT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5876,7 +5876,7 @@
         <v>18</v>
       </c>
       <c r="CJ18" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="CK18" s="1">
         <v>18</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK19" s="1">
         <v>0</v>
@@ -6480,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK20" s="1">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>18</v>
       </c>
       <c r="CB21" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="CC21" s="1">
         <v>18</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK21" s="1">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>18</v>
       </c>
       <c r="CQ21" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="CR21" s="1">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="CB22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC22" s="1">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK22" s="1">
         <v>0</v>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
       <c r="CQ22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR22" s="1">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="CB23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC23" s="1">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK23" s="1">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="CQ23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR23" s="1">
         <v>0</v>
@@ -7781,9 +7781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7919,26 +7922,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7962,9 +7954,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム企画書関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CT23" sqref="CT23"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BY15" sqref="BY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="BB1" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC1" s="1">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="1">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="BB3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="1">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="1">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="1">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="1">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM12" s="1">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW12" s="1">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1">
         <v>0</v>
@@ -4264,7 +4264,7 @@
         <v>5</v>
       </c>
       <c r="BB13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="BU13" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BV13" s="1">
         <v>0</v>
@@ -4431,52 +4431,52 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>2</v>
+      </c>
+      <c r="X14" s="1">
         <v>15</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2</v>
-      </c>
-      <c r="M14" s="1">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2</v>
-      </c>
-      <c r="U14" s="1">
-        <v>2</v>
-      </c>
-      <c r="V14" s="1">
-        <v>2</v>
-      </c>
-      <c r="W14" s="1">
-        <v>2</v>
-      </c>
-      <c r="X14" s="1">
-        <v>2</v>
       </c>
       <c r="Y14" s="1">
         <v>2</v>
@@ -4736,49 +4736,49 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
         <v>15</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
@@ -5038,49 +5038,49 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
         <v>15</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
       </c>
       <c r="Y16" s="1">
         <v>0</v>
@@ -5340,49 +5340,49 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
         <v>15</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -5642,49 +5642,49 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
         <v>15</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
       </c>
       <c r="Y18" s="1">
         <v>0</v>
@@ -5944,49 +5944,49 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
         <v>15</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -6246,49 +6246,49 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
         <v>15</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0</v>
-      </c>
-      <c r="U20" s="1">
-        <v>0</v>
-      </c>
-      <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
-        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <v>0</v>
@@ -6548,50 +6548,50 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
         <v>15</v>
       </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI21" s="1">
         <v>0</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -6850,49 +6850,49 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
         <v>15</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
@@ -7140,70 +7140,70 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
         <v>15</v>
       </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1">
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
         <v>7</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>0</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
@@ -7442,37 +7442,37 @@
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="1">
         <v>2</v>
@@ -7781,12 +7781,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7922,15 +7919,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7954,17 +7962,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム企画書関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY15" sqref="BY15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7203,85 +7203,85 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1">
         <v>7</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="1">
-        <v>0</v>
       </c>
       <c r="BB23" s="1">
         <v>2</v>
@@ -7781,9 +7781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7919,26 +7922,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7962,9 +7954,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BY15" sqref="BY15"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CG15" sqref="CG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="CE16" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="CF16" s="1">
         <v>0</v>
@@ -7152,13 +7152,13 @@
         <v>2</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1">
         <v>2</v>
@@ -7442,37 +7442,37 @@
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="1">
         <v>2</v>

--- a/ACG/ACG/stage2.xlsx
+++ b/ACG/ACG/stage2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\チーム企画書関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CG15" sqref="CG15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ27" sqref="AZ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
@@ -7787,6 +7787,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -7918,32 +7927,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945B0997-09C9-47EE-A1D3-4323B1C7696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEACA13-97D6-4D46-ADEB-F4BFF626D9D4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7959,12 +7960,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8989BAA7-7EBB-4E4D-98E9-E36CC39FDCEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>